--- a/parameters/PR_001_Daten.xlsx
+++ b/parameters/PR_001_Daten.xlsx
@@ -91,7 +91,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,7 +172,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -208,6 +214,18 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="166" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="4" fontId="0" numFmtId="166" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -290,8 +308,8 @@
   </sheetPr>
   <dimension ref="A1:H417"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A63" activeCellId="0" pane="topLeft" sqref="63:64"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A169" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K186" activeCellId="0" pane="topLeft" sqref="K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3551,23 +3569,23 @@
         <v>0.770670334715789</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="194">
-      <c r="C194" s="5" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="194" s="11">
+      <c r="C194" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="D194" s="5" t="n">
+      <c r="D194" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E194" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" s="4" t="n">
+      <c r="E194" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" s="13" t="n">
         <v>6.24932543317401</v>
       </c>
-      <c r="G194" s="4" t="n">
+      <c r="G194" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="H194" s="4" t="n">
+      <c r="H194" s="13" t="n">
         <v>0.855292312291264</v>
       </c>
     </row>
